--- a/src/main/java/com/fdds/keywordframe/data/KeyWordsActionTestCases.xlsx
+++ b/src/main/java/com/fdds/keywordframe/data/KeyWordsActionTestCases.xlsx
@@ -1778,7 +1778,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
